--- a/artfynd/A 46341-2022.xlsx
+++ b/artfynd/A 46341-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,6 +1049,112 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112330395</v>
+      </c>
+      <c r="B5" t="n">
+        <v>88166</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6276</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Goliatmusseron</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Tricholoma matsutake</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Skrakaholmberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>560633</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7108638</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Tåsjö</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Susanne Wiik</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Susanne Wiik</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 46341-2022.xlsx
+++ b/artfynd/A 46341-2022.xlsx
@@ -1054,7 +1054,7 @@
         <v>112330395</v>
       </c>
       <c r="B5" t="n">
-        <v>88166</v>
+        <v>88180</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
